--- a/public/templates/importacion_clientes_completo.xlsx
+++ b/public/templates/importacion_clientes_completo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a967b2abe915b65f/Facturación Electrónica/Frontend/nuevo_dashboard/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{367E8223-18F2-41F2-BB4D-B6F65EEBC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7260F8EA-67FC-4B84-90DC-4057DB3A284A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{367E8223-18F2-41F2-BB4D-B6F65EEBC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3FED02-2EE9-4DB6-8AE5-5A04A151378E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16416153-6D8D-4DF2-A22B-890BCB807E36}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16416153-6D8D-4DF2-A22B-890BCB807E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -192,12 +192,6 @@
     <t>San Salvador Oeste</t>
   </si>
   <si>
-    <t>Cuscatlán Norte</t>
-  </si>
-  <si>
-    <t>Cuscatlán Sur</t>
-  </si>
-  <si>
     <t>La Paz Oeste</t>
   </si>
   <si>
@@ -3382,6 +3376,12 @@
   </si>
   <si>
     <t>Jurídica</t>
+  </si>
+  <si>
+    <t>Cuscatlan Norte</t>
+  </si>
+  <si>
+    <t>Cuscatlan Sur</t>
   </si>
 </sst>
 </file>
@@ -3417,9 +3417,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3741,70 +3740,69 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2"/>
-    <col min="11" max="11" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1" t="s">
         <v>839</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>840</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>841</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>842</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>843</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
         <v>844</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>845</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>846</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" t="s">
         <v>847</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" t="s">
         <v>848</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" t="s">
         <v>849</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3840,7 @@
   <dimension ref="A1:U774"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3896,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -3917,19 +3915,19 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="T1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="U1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3958,43 +3956,43 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
       <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="T2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="U2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4020,10 +4018,10 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>1107</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -4032,31 +4030,31 @@
         <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
         <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="U3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4085,19 +4083,19 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
         <v>50</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
       </c>
       <c r="Q4" t="s">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4117,13 +4115,13 @@
         <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4137,13 +4135,13 @@
         <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4154,10 +4152,10 @@
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4165,10 +4163,10 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4176,21 +4174,21 @@
         <v>7</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4198,10 +4196,10 @@
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4209,10 +4207,10 @@
         <v>9</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4220,10 +4218,10 @@
         <v>10</v>
       </c>
       <c r="R13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -4231,10 +4229,10 @@
         <v>11</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -4242,10 +4240,10 @@
         <v>12</v>
       </c>
       <c r="R15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4253,4502 +4251,4502 @@
         <v>13</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="17" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S21" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S23" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S24" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="25" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S25" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S26" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S27" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="28" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="29" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S29" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="30" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="31" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S31" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="32" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S32" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S33" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S34" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="35" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S35" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="36" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S36" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="37" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S37" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S38" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S39" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="40" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S40" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="41" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S41" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="42" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S42" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="43" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S43" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="44" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S44" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S45" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="46" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S46" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="47" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S47" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="48" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S48" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S49" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S50" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S51" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S52" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S53" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S54" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S55" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S56" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S57" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S58" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S59" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S60" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="61" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S61" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="62" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S62" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="63" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S63" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S64" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S65" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S66" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S67" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S68" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S69" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S70" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S71" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S72" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S73" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S74" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S75" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S76" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S77" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S78" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S79" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S80" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S81" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S82" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S83" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S84" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S85" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S86" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S87" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S88" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="89" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S89" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="90" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R90" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S90" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="91" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S91" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="92" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S92" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S93" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="94" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R94" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S94" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="95" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R95" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S95" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="96" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S96" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="97" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S97" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="98" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S98" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="99" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S99" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="100" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R100" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S100" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="101" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S101" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="102" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S102" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="103" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S103" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="104" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S104" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="105" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S105" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="106" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S106" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="107" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S107" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="108" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S108" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="109" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S109" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="110" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S110" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="111" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R111" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S111" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="112" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R112" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S112" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="113" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R113" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S113" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="114" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R114" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S114" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="115" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R115" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S115" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="116" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S116" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="117" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R117" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S117" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="118" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R118" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S118" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="119" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R119" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S119" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="120" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R120" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S120" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="121" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R121" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S121" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="122" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R122" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S122" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="123" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S123" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="124" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R124" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S124" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="125" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S125" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="126" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R126" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S126" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="127" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R127" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S127" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="128" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R128" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S128" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="129" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S129" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="130" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R130" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S130" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="131" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R131" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S131" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="132" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R132" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S132" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="133" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S133" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="134" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R134" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S134" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="135" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R135" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S135" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="136" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R136" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S136" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="137" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R137" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S137" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="138" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R138" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S138" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="139" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R139" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S139" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="140" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R140" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S140" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="141" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R141" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S141" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="142" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R142" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S142" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="143" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R143" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S143" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="144" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R144" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S144" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="145" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R145" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S145" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="146" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R146" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S146" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="147" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R147" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S147" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="148" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R148" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S148" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="149" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R149" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S149" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="150" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R150" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S150" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="151" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R151" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S151" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="152" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R152" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S152" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="153" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R153" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S153" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="154" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R154" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S154" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="155" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R155" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S155" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="156" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R156" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S156" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="157" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R157" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S157" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="158" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R158" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S158" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="159" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R159" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S159" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="160" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R160" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S160" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="161" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R161" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S161" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="162" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R162" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S162" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="163" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R163" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S163" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="164" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R164" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S164" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="165" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R165" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S165" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="166" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R166" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S166" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="167" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R167" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S167" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="168" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R168" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S168" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="169" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R169" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S169" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="170" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R170" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S170" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="171" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R171" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S171" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="172" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R172" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S172" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="173" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R173" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S173" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="174" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R174" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S174" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="175" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R175" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S175" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="176" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R176" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S176" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="177" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R177" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S177" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="178" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R178" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S178" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="179" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R179" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S179" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="180" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R180" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S180" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="181" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R181" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S181" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="182" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R182" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S182" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="183" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R183" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S183" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="184" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R184" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S184" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="185" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R185" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S185" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="186" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R186" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S186" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="187" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R187" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S187" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="188" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R188" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S188" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="189" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R189" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S189" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="190" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R190" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S190" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="191" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R191" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S191" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="192" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R192" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S192" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="193" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R193" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S193" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="194" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R194" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S194" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="195" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R195" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S195" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="196" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R196" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S196" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="197" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R197" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S197" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="198" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R198" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S198" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="199" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R199" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S199" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="200" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R200" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S200" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="201" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R201" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S201" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="202" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R202" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S202" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="203" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R203" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S203" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="204" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R204" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S204" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="205" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R205" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S205" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="206" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R206" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S206" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="207" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R207" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S207" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="208" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R208" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S208" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="209" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R209" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S209" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="210" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R210" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S210" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="211" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R211" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S211" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="212" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R212" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S212" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="213" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R213" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S213" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="214" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R214" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S214" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="215" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R215" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S215" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="216" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R216" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S216" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="217" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R217" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S217" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="218" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R218" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S218" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="219" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R219" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S219" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="220" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R220" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S220" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="221" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R221" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S221" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="222" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R222" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S222" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="223" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R223" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S223" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="224" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R224" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S224" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="225" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R225" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S225" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="226" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R226" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S226" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="227" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R227" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S227" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="228" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R228" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S228" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="229" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R229" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S229" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="230" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R230" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S230" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="231" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R231" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S231" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="232" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R232" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S232" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="233" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R233" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="S233" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="234" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R234" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S234" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="235" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R235" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S235" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="236" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R236" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S236" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="237" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R237" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S237" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="238" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R238" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S238" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="239" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R239" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S239" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="240" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R240" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S240" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="241" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R241" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S241" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="242" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R242" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S242" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="243" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R243" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S243" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="244" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R244" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="S244" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="245" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R245" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S245" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="246" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R246" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S246" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="247" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R247" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S247" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="248" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R248" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S248" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="249" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R249" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S249" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="250" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R250" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S250" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="251" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R251" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R252" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R253" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R254" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R255" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="256" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R256" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="257" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R257" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="258" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R258" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="259" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R259" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="260" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R260" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R261" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="262" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R262" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="263" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R263" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="264" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R264" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="265" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R265" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="266" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R266" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="267" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R267" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="268" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R268" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="269" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R269" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="270" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R270" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="271" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R271" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="272" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R272" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="273" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R273" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="274" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R274" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="275" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R275" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="276" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R276" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="277" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R277" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="278" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R278" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="279" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R279" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R280" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R281" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R282" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="283" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R283" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R284" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R285" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R286" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R287" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R288" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="289" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R289" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="290" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R290" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="291" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R291" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="292" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R292" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="293" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R293" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="294" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R294" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="295" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R295" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="296" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R296" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="297" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R297" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="298" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R298" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="299" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R299" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="300" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R300" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="301" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R301" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="302" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R302" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="303" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R303" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="304" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R304" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="305" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R305" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="306" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R306" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="307" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R307" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="308" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R308" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="309" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R309" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="310" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R310" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="311" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R311" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="312" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R312" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="313" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R313" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="314" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R314" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="315" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R315" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="316" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R316" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="317" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R317" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="318" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R318" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="319" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R319" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="320" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R320" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="321" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R321" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="322" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R322" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="323" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R323" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="324" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R324" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="325" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R325" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="326" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R326" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="327" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R327" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="328" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R328" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="329" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R329" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="330" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R330" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="331" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R331" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="332" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R332" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="333" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R333" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="334" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R334" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="335" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R335" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="336" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R336" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="337" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R337" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="338" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R338" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="339" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R339" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="340" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R340" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="341" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R341" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="342" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R342" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="343" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R343" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="344" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R344" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="345" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R345" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="346" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R346" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="347" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R347" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="348" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R348" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="349" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R349" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="350" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R350" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="351" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R351" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="352" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R352" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="353" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R353" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="354" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R354" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="355" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R355" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="356" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R356" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="357" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R357" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="358" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R358" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="359" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R359" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="360" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R360" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="361" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R361" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="362" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R362" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="363" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R363" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="364" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R364" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="365" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R365" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="366" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R366" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="367" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R367" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="368" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R368" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="369" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R369" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="370" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R370" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="371" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R371" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="372" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R372" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="373" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R373" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="374" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R374" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="375" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R375" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="376" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R376" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="377" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R377" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="378" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R378" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="379" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R379" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="380" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R380" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="381" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R381" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="382" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R382" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="383" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R383" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="384" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R384" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="385" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R385" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="386" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R386" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="387" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R387" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="388" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R388" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="389" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R389" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="390" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R390" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="391" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R391" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R392" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="393" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R393" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="394" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R394" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="395" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R395" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="396" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R396" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="397" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R397" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="398" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R398" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="399" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R399" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="400" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R400" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="401" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R401" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="402" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R402" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="403" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R403" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="404" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R404" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="405" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R405" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="406" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R406" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="407" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R407" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="408" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R408" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="409" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R409" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="410" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R410" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="411" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R411" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="412" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R412" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="413" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R413" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="414" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R414" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="415" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R415" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="416" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R416" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="417" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R417" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="418" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R418" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="419" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R419" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="420" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R420" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="421" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R421" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="422" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R422" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="423" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R423" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="424" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R424" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="425" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R425" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="426" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R426" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="427" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R427" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="428" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R428" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R429" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="430" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R430" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="431" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R431" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="432" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R432" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="433" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R433" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="434" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R434" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="435" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R435" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="436" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R436" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="437" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R437" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="438" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R438" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="439" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R439" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="440" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R440" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="441" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R441" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="442" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R442" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="443" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R443" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="444" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R444" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="445" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R445" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="446" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R446" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="447" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R447" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="448" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R448" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="449" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R449" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="450" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R450" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="451" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R451" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="452" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R452" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="453" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R453" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="454" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R454" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="455" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R455" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="456" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R456" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="457" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R457" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="458" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R458" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="459" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R459" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="460" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R460" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="461" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R461" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="462" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R462" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="463" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R463" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="464" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R464" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="465" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R465" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="466" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R466" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="467" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R467" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="468" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R468" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="469" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R469" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="470" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R470" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="471" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R471" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="472" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R472" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="473" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R473" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="474" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R474" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="475" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R475" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="476" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R476" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="477" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R477" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="478" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R478" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="479" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R479" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="480" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R480" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="481" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R481" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="482" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R482" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="483" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R483" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="484" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R484" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="485" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R485" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="486" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R486" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="487" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R487" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="488" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R488" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="489" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R489" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="490" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R490" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="491" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R491" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="492" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R492" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="493" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R493" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="494" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R494" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="495" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R495" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="496" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R496" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="497" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R497" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="498" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R498" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="499" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R499" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="500" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R500" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="501" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R501" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="502" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R502" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="503" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R503" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="504" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R504" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="505" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R505" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="506" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R506" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="507" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R507" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="508" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R508" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="509" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R509" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R510" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="511" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R511" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R512" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="513" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R513" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="514" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R514" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="515" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R515" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="516" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R516" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="517" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R517" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="518" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R518" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="519" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R519" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="520" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R520" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="521" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R521" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="522" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R522" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="523" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R523" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="524" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R524" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="525" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R525" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="526" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R526" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="527" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R527" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="528" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R528" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="529" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R529" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="530" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R530" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="531" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R531" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="532" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R532" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="533" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R533" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="534" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R534" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="535" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R535" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="536" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R536" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="537" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R537" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="538" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R538" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="539" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R539" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="540" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R540" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="541" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R541" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="542" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R542" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="543" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R543" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="544" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R544" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="545" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R545" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="546" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R546" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="547" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R547" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="548" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R548" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="549" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R549" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="550" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R550" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="551" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R551" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="552" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R552" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="553" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R553" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="554" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R554" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="555" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R555" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="556" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R556" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="557" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R557" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="558" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R558" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="559" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R559" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="560" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R560" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="561" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R561" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="562" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R562" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="563" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R563" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="564" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R564" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="565" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R565" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="566" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R566" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="567" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R567" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="568" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R568" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="569" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R569" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="570" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R570" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="571" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R571" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="572" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R572" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="573" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R573" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="574" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R574" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="575" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R575" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="576" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R576" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="577" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R577" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="578" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R578" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="579" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R579" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="580" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R580" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="581" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R581" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="582" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R582" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="583" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R583" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="584" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R584" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="585" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R585" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="586" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R586" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="587" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R587" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="588" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R588" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="589" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R589" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="590" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R590" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="591" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R591" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="592" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R592" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="593" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R593" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="594" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R594" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="595" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R595" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="596" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R596" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="597" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R597" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="598" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R598" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="599" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R599" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="600" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R600" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="601" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R601" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="602" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R602" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="603" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R603" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="604" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R604" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="605" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R605" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="606" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R606" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="607" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R607" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="608" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R608" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="609" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R609" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="610" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R610" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="611" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R611" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="612" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R612" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="613" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R613" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="614" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R614" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="615" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R615" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="616" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R616" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="617" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R617" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="618" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R618" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="619" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R619" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="620" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R620" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="621" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R621" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="622" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R622" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="623" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R623" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="624" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R624" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="625" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R625" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="626" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R626" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="627" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R627" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="628" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R628" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="629" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R629" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="630" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R630" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="631" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R631" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="632" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R632" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="633" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R633" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="634" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R634" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="635" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R635" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="636" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R636" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="637" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R637" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="638" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R638" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="639" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R639" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="640" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R640" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="641" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R641" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="642" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R642" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="643" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R643" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="644" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R644" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="645" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R645" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="646" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R646" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="647" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R647" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="648" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R648" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="649" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R649" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="650" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R650" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="651" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R651" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="652" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R652" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="653" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R653" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="654" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R654" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="655" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R655" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="656" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R656" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="657" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R657" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="658" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R658" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="659" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R659" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="660" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R660" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="661" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R661" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="662" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R662" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="663" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R663" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="664" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R664" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="665" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R665" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="666" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R666" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="667" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R667" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="668" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R668" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="669" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R669" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="670" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R670" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="671" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R671" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="672" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R672" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="673" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R673" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="674" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R674" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="675" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R675" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="676" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R676" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="677" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R677" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="678" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R678" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="679" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R679" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="680" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R680" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="681" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R681" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="682" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R682" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="683" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R683" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="684" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R684" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="685" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R685" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="686" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R686" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="687" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R687" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="688" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R688" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="689" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R689" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="690" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R690" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="691" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R691" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="692" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R692" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="693" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R693" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="694" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R694" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="695" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R695" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="696" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R696" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="697" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R697" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="698" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R698" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="699" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R699" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="700" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R700" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="701" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R701" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="702" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R702" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="703" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R703" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="704" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R704" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="705" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R705" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="706" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R706" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="707" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R707" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="708" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R708" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="709" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R709" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="710" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R710" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="711" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R711" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="712" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R712" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="713" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R713" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="714" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R714" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="715" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R715" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="716" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R716" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="717" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R717" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="718" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R718" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="719" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R719" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="720" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R720" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="721" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R721" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="722" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R722" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="723" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R723" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="724" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R724" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="725" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R725" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="726" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R726" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="727" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R727" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="728" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R728" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="729" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R729" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="730" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R730" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="731" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R731" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="732" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R732" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="733" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R733" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="734" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R734" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="735" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R735" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="736" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R736" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="737" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R737" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="738" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R738" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="739" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R739" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="740" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R740" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="741" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R741" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="742" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R742" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="743" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R743" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="744" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R744" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="745" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R745" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="746" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R746" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="747" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R747" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="748" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R748" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="749" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R749" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="750" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R750" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="751" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R751" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="752" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R752" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="753" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R753" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="754" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R754" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="755" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R755" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="756" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R756" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="757" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R757" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="758" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R758" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="759" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R759" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="760" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R760" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="761" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R761" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="762" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R762" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="763" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R763" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="764" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R764" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="765" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R765" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="766" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R766" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="767" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R767" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="768" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R768" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="769" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R769" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="770" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R770" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="771" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R771" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="772" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R772" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="773" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R773" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="774" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R774" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/importacion_clientes_completo.xlsx
+++ b/public/templates/importacion_clientes_completo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a967b2abe915b65f/Facturación Electrónica/Frontend/nuevo_dashboard/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{367E8223-18F2-41F2-BB4D-B6F65EEBC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3FED02-2EE9-4DB6-8AE5-5A04A151378E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{367E8223-18F2-41F2-BB4D-B6F65EEBC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7260F8EA-67FC-4B84-90DC-4057DB3A284A}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16416153-6D8D-4DF2-A22B-890BCB807E36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16416153-6D8D-4DF2-A22B-890BCB807E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -192,6 +192,12 @@
     <t>San Salvador Oeste</t>
   </si>
   <si>
+    <t>Cuscatlán Norte</t>
+  </si>
+  <si>
+    <t>Cuscatlán Sur</t>
+  </si>
+  <si>
     <t>La Paz Oeste</t>
   </si>
   <si>
@@ -3376,12 +3382,6 @@
   </si>
   <si>
     <t>Jurídica</t>
-  </si>
-  <si>
-    <t>Cuscatlan Norte</t>
-  </si>
-  <si>
-    <t>Cuscatlan Sur</t>
   </si>
 </sst>
 </file>
@@ -3417,8 +3417,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3740,69 +3741,70 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="M1" t="s">
+      <c r="K1" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="N1" t="s">
+      <c r="L1" s="1" t="s">
         <v>849</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -3840,7 +3842,7 @@
   <dimension ref="A1:U774"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="U2" sqref="U2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3867,7 +3869,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3894,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -3915,19 +3917,19 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="T1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="U1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3956,43 +3958,43 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>856</v>
+      </c>
+      <c r="T2" t="s">
+        <v>853</v>
+      </c>
+      <c r="U2" t="s">
         <v>1106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" t="s">
-        <v>854</v>
-      </c>
-      <c r="T2" t="s">
-        <v>851</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4018,10 +4020,10 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>1107</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -4030,31 +4032,31 @@
         <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
         <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="T3" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="U3" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4083,19 +4085,19 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4115,13 +4117,13 @@
         <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4135,13 +4137,13 @@
         <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4152,10 +4154,10 @@
         <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4163,10 +4165,10 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4174,21 +4176,21 @@
         <v>7</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4196,10 +4198,10 @@
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4207,10 +4209,10 @@
         <v>9</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4218,10 +4220,10 @@
         <v>10</v>
       </c>
       <c r="R13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -4229,10 +4231,10 @@
         <v>11</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -4240,10 +4242,10 @@
         <v>12</v>
       </c>
       <c r="R15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4251,4502 +4253,4502 @@
         <v>13</v>
       </c>
       <c r="R16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="18" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="19" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="20" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S20" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S21" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S22" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="23" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S23" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="24" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="25" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S25" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="26" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S26" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="27" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S27" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="28" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S28" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="29" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S29" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="30" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S30" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="31" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S31" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="32" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S32" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="33" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S33" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="34" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S34" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="35" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S35" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="36" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S36" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="37" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S37" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="38" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S38" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="39" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S39" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="40" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S40" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="41" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S41" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="42" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S42" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="43" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S43" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="44" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S44" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S45" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S46" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S47" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="48" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S48" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S49" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S50" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S51" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S52" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S53" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S54" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S55" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S56" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S57" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S58" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S59" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R60" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S60" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="61" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S61" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="62" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S62" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="63" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S63" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="64" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S64" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S65" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S66" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R67" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S67" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S68" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S69" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S70" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S71" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S72" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S73" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S74" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R75" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S75" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S76" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R77" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S77" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R78" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S78" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S79" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R80" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="S80" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S81" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R82" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S82" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R83" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S83" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R84" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S84" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R85" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S85" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R86" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S86" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R87" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S87" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R88" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S88" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="89" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S89" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="90" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R90" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S90" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="91" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R91" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S91" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="92" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S92" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="93" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S93" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="94" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R94" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S94" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="95" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R95" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S95" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="96" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R96" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S96" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="97" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R97" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S97" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="98" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S98" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="99" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R99" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S99" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="100" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R100" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S100" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="101" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R101" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S101" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="102" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R102" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S102" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="103" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R103" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S103" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="104" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R104" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S104" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="105" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R105" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S105" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="106" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R106" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S106" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="107" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R107" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S107" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="108" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R108" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S108" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="109" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R109" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S109" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="110" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R110" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S110" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="111" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R111" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="S111" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="112" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R112" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S112" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="113" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R113" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S113" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="114" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R114" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S114" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="115" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R115" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S115" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="116" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R116" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="S116" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="117" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R117" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="S117" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="118" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R118" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S118" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="119" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R119" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S119" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="120" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R120" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S120" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="121" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R121" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S121" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="122" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R122" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S122" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="123" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R123" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S123" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="124" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R124" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S124" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="125" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R125" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="S125" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="126" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R126" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="S126" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="127" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R127" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S127" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="128" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R128" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S128" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="129" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R129" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="S129" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="130" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R130" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S130" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="131" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R131" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S131" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="132" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R132" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S132" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="133" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R133" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S133" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="134" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R134" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="S134" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="135" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R135" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S135" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="136" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R136" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="S136" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="137" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R137" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="S137" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="138" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R138" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S138" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="139" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R139" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="S139" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="140" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R140" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S140" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="141" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R141" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S141" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="142" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R142" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S142" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="143" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R143" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S143" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="144" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R144" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S144" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="145" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R145" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S145" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="146" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R146" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S146" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="147" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R147" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S147" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="148" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R148" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S148" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="149" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R149" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S149" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="150" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R150" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="S150" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="151" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R151" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S151" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="152" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R152" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="S152" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="153" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R153" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S153" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="154" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R154" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S154" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="155" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R155" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S155" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="156" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R156" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S156" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="157" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R157" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S157" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="158" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R158" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="S158" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="159" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R159" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S159" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="160" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R160" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S160" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="161" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R161" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S161" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="162" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R162" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S162" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="163" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R163" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S163" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="164" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R164" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="S164" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="165" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R165" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S165" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="166" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R166" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S166" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="167" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R167" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S167" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="168" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R168" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S168" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="169" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R169" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="S169" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="170" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R170" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="S170" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="171" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R171" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S171" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="172" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R172" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="S172" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="173" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R173" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S173" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="174" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R174" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S174" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="175" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R175" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S175" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="176" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R176" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S176" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="177" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R177" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S177" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="178" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R178" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S178" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="179" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R179" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S179" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="180" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R180" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S180" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="181" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R181" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S181" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="182" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R182" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="S182" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="183" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R183" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S183" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="184" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R184" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S184" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="185" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R185" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S185" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="186" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R186" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S186" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="187" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R187" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S187" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="188" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R188" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="S188" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="189" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R189" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S189" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="190" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R190" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S190" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="191" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R191" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S191" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="192" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R192" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="S192" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="193" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R193" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="S193" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="194" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R194" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S194" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="195" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R195" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S195" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="196" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R196" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S196" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="197" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R197" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S197" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="198" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R198" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S198" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="199" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R199" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S199" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="200" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R200" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="S200" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="201" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R201" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S201" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="202" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R202" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S202" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="203" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R203" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S203" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="204" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R204" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S204" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="205" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R205" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S205" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="206" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R206" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S206" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="207" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R207" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S207" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="208" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R208" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S208" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="209" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R209" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S209" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="210" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R210" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="S210" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="211" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R211" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="S211" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="212" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R212" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S212" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="213" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R213" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S213" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="214" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R214" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="S214" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="215" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R215" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S215" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="216" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R216" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="S216" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="217" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R217" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S217" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="218" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R218" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S218" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="219" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R219" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S219" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="220" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R220" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S220" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="221" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R221" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S221" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="222" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R222" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S222" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="223" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R223" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S223" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="224" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R224" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S224" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="225" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R225" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="S225" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="226" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R226" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="S226" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="227" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R227" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S227" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="228" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R228" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S228" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="229" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R229" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="S229" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="230" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R230" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="S230" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="231" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R231" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S231" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="232" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R232" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S232" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="233" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R233" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S233" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="234" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R234" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="S234" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="235" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R235" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S235" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="236" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R236" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S236" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="237" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R237" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S237" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="238" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R238" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S238" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="239" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R239" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S239" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="240" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R240" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S240" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="241" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R241" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S241" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="242" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R242" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S242" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="243" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R243" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="S243" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="244" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R244" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S244" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="245" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R245" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S245" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="246" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R246" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S246" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="247" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R247" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="S247" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="248" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R248" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="S248" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="249" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R249" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S249" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="250" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R250" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="S250" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="251" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R251" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="252" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R252" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R253" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="254" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R254" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R255" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R256" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R257" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R258" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R259" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R260" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R261" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R262" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R263" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R264" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R265" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R266" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R267" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R268" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R269" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="270" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R270" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R271" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R272" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R273" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="274" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R274" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="275" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R275" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="276" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R276" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R277" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R278" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="279" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R279" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="280" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R280" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="281" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R281" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="282" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R282" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="283" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R283" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R284" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="285" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R285" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="286" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R286" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R287" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="288" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R288" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="289" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R289" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="290" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R290" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="291" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R291" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="292" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R292" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="293" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R293" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="294" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R294" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="295" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R295" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="296" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R296" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="297" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R297" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="298" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R298" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="299" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R299" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="300" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R300" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="301" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R301" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R302" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R303" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="304" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R304" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="305" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R305" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="306" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R306" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="307" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R307" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="308" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R308" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R309" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="310" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R310" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="311" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R311" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="312" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R312" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="313" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R313" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="314" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R314" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="315" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R315" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="316" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R316" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R317" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="318" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R318" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="319" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R319" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="320" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R320" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="321" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R321" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="322" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R322" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="323" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R323" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="324" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R324" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="325" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R325" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="326" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R326" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="327" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R327" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="328" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R328" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="329" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R329" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="330" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R330" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="331" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R331" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="332" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R332" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="333" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R333" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="334" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R334" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="335" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R335" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="336" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R336" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="337" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R337" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="338" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R338" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="339" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R339" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="340" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R340" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="341" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R341" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="342" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R342" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="343" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R343" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="344" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R344" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="345" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R345" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="346" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R346" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="347" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R347" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="348" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R348" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="349" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R349" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="350" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R350" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="351" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R351" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="352" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R352" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="353" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R353" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="354" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R354" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="355" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R355" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="356" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R356" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="357" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R357" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="358" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R358" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="359" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R359" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="360" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R360" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="361" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R361" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="362" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R362" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="363" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R363" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R364" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="365" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R365" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="366" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R366" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="367" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R367" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="368" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R368" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="369" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R369" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="370" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R370" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="371" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R371" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="372" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R372" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="373" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R373" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="374" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R374" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="375" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R375" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="376" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R376" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="377" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R377" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="378" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R378" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="379" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R379" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="380" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R380" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="381" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R381" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="382" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R382" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="383" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R383" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="384" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R384" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="385" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R385" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="386" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R386" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="387" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R387" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="388" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R388" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="389" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R389" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="390" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R390" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="391" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R391" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="392" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R392" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="393" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R393" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="394" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R394" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="395" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R395" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="396" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R396" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="397" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R397" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="398" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R398" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="399" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R399" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="400" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R400" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="401" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R401" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="402" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R402" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="403" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R403" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="404" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R404" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="405" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R405" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="406" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R406" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="407" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R407" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="408" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R408" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="409" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R409" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="410" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R410" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="411" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R411" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="412" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R412" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="413" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R413" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="414" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R414" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="415" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R415" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="416" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R416" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="417" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R417" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="418" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R418" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="419" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R419" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="420" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R420" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="421" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R421" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="422" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R422" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="423" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R423" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="424" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R424" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="425" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R425" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="426" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R426" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="427" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R427" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="428" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R428" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="429" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R429" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="430" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R430" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="431" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R431" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="432" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R432" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="433" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R433" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="434" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R434" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="435" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R435" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="436" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R436" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="437" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R437" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="438" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R438" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="439" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R439" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="440" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R440" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="441" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R441" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="442" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R442" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="443" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R443" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="444" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R444" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="445" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R445" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="446" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R446" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="447" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R447" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="448" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R448" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="449" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R449" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="450" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R450" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="451" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R451" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="452" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R452" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="453" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R453" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="454" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R454" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="455" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R455" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="456" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R456" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="457" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R457" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="458" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R458" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="459" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R459" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="460" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R460" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="461" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R461" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="462" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R462" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="463" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R463" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="464" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R464" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="465" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R465" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="466" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R466" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="467" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R467" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="468" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R468" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="469" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R469" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="470" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R470" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="471" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R471" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="472" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R472" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="473" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R473" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="474" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R474" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="475" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R475" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="476" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R476" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="477" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R477" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="478" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R478" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="479" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R479" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="480" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R480" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="481" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R481" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="482" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R482" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="483" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R483" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="484" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R484" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="485" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R485" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="486" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R486" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="487" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R487" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="488" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R488" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="489" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R489" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="490" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R490" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="491" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R491" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="492" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R492" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="493" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R493" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="494" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R494" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="495" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R495" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="496" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R496" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="497" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R497" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="498" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R498" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="499" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R499" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="500" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R500" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="501" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R501" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="502" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R502" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="503" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R503" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="504" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R504" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="505" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R505" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="506" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R506" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="507" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R507" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="508" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R508" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="509" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R510" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="511" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R511" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="512" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R512" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="513" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R513" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="514" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R514" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="515" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R515" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R516" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="517" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R517" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R518" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="519" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R519" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="520" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R520" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="521" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R521" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="522" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R522" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="523" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R523" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="524" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R524" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="525" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R525" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="526" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R526" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="527" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R527" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="528" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R528" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="529" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R529" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="530" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R530" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="531" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R531" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="532" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R532" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="533" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R533" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="534" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R534" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="535" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R535" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="536" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R536" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="537" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R537" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="538" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R538" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="539" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R539" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="540" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R540" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="541" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R541" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="542" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R542" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="543" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R543" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="544" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R544" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="545" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R545" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="546" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R546" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="547" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R547" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="548" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R548" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="549" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R549" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="550" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R550" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="551" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R551" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="552" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R552" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="553" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R553" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="554" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R554" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="555" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R555" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="556" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R556" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="557" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R557" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="558" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R558" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="559" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R559" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="560" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R560" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="561" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R561" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="562" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R562" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="563" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R563" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="564" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R564" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="565" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R565" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="566" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R566" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="567" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R567" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="568" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R568" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="569" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R569" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="570" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R570" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="571" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R571" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="572" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R572" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="573" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R573" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="574" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R574" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="575" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R575" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="576" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R576" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="577" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R577" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="578" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R578" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="579" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R579" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="580" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R580" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="581" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R581" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="582" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R582" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="583" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R583" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="584" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R584" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="585" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R585" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="586" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R586" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="587" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R587" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="588" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R588" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="589" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R589" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="590" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R590" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="591" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R591" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="592" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R592" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="593" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R593" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="594" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R594" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="595" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R595" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="596" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R596" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="597" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R597" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="598" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R598" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="599" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R599" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="600" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R600" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="601" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R601" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="602" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R602" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="603" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R603" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="604" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R604" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="605" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R605" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="606" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R606" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="607" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R607" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="608" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R608" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="609" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R609" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="610" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R610" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="611" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R611" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="612" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R612" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="613" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R613" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="614" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R614" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="615" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R615" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="616" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R616" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="617" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R617" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="618" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R618" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="619" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R619" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="620" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R620" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="621" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R621" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="622" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R622" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="623" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R623" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="624" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R624" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="625" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R625" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="626" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R626" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="627" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R627" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="628" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R628" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="629" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R629" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="630" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R630" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="631" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R631" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="632" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R632" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="633" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R633" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="634" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R634" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="635" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R635" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="636" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R636" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="637" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R637" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="638" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R638" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="639" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R639" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="640" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R640" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="641" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R641" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="642" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R642" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="643" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R643" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="644" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R644" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="645" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R645" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="646" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R646" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="647" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R647" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="648" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R648" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="649" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R649" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="650" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R650" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="651" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R651" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="652" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R652" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="653" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R653" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="654" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R654" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="655" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R655" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="656" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R656" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="657" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R657" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="658" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R658" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="659" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R659" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="660" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R660" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="661" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R661" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="662" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R662" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="663" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R663" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="664" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R664" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="665" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R665" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="666" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R666" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="667" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R667" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="668" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R668" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="669" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R669" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="670" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R670" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="671" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R671" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="672" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R672" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="673" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R673" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="674" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R674" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="675" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R675" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="676" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R676" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="677" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R677" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="678" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R678" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="679" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R679" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="680" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R680" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="681" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R681" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="682" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R682" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="683" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R683" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="684" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R684" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="685" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R685" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="686" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R686" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="687" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R687" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="688" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R688" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="689" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R689" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="690" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R690" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="691" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R691" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="692" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R692" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="693" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R693" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="694" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R694" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="695" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R695" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="696" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R696" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="697" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R697" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="698" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R698" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="699" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R699" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="700" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R700" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="701" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R701" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="702" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R702" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="703" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R703" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="704" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R704" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="705" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R705" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="706" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R706" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="707" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R707" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="708" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R708" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="709" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R709" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="710" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R710" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="711" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R711" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="712" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R712" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="713" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R713" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="714" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R714" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="715" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R715" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="716" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R716" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="717" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R717" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="718" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R718" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="719" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R719" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="720" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R720" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="721" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R721" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="722" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R722" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="723" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R723" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="724" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R724" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="725" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R725" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="726" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R726" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="727" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R727" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="728" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R728" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="729" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R729" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="730" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R730" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="731" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R731" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="732" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R732" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="733" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R733" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="734" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R734" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="735" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R735" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="736" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R736" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="737" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R737" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="738" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R738" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="739" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R739" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="740" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R740" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="741" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R741" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="742" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R742" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="743" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R743" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="744" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R744" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="745" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R745" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="746" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R746" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="747" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R747" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="748" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R748" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="749" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R749" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="750" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R750" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="751" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R751" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="752" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R752" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="753" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R753" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="754" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R754" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="755" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R755" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="756" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R756" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="757" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R757" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="758" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R758" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="759" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R759" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="760" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R760" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="761" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R761" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="762" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R762" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="763" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R763" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="764" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R764" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="765" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R765" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="766" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R766" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="767" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R767" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="768" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R768" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="769" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R769" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="770" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R770" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="771" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R771" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="772" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R772" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="773" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R773" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="774" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R774" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
